--- a/sokoban.xlsx
+++ b/sokoban.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Sokoban\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A1_DEV\00_PERSO\Sokoban\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE559E9-44B1-4053-B3DF-72C62E04C45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE598797-F5BC-4195-A194-4541D6916D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contexte" sheetId="1" r:id="rId1"/>
     <sheet name="ScreenManager" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>T2</t>
   </si>
@@ -48,12 +48,45 @@
   </si>
   <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>Lancement</t>
+  </si>
+  <si>
+    <t>MenuScreen</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Scores</t>
+  </si>
+  <si>
+    <t>Selection lvl</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>screen_state :</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="10"/>
@@ -289,25 +322,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="2"/>
-    <cellStyle name="Accent 1" xfId="3"/>
-    <cellStyle name="Accent 2" xfId="4"/>
-    <cellStyle name="Accent 3" xfId="5"/>
-    <cellStyle name="Bad" xfId="6"/>
-    <cellStyle name="Error" xfId="7"/>
-    <cellStyle name="Footnote" xfId="8"/>
-    <cellStyle name="Good" xfId="9"/>
-    <cellStyle name="Heading" xfId="10"/>
-    <cellStyle name="Heading 1" xfId="11"/>
-    <cellStyle name="Heading 2" xfId="12"/>
-    <cellStyle name="Hyperlink" xfId="13"/>
-    <cellStyle name="Neutral" xfId="14"/>
+    <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="1" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,17 +651,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="S7:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.42578125" defaultRowHeight="28.35" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.44140625" defaultRowHeight="28.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="5.42578125" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="5.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="19:23" ht="28.35" customHeight="1">
@@ -703,15 +736,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D9:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="9" spans="4:7">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>